--- a/input/DANE/1959.xlsx
+++ b/input/DANE/1959.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Documents/HEC_Datos/input/DANE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B7F7B3B-93D0-9F4C-A702-029B1C5C5182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E326A8E4-E100-E342-955E-C9CD67645546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13780" xr2:uid="{A06C12F6-62B3-0447-B7C9-03D0AD101283}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Concordia.</t>
   </si>
   <si>
-    <t>Chigorodb,</t>
-  </si>
-  <si>
     <t>Dabeiba</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>Magangue.</t>
   </si>
   <si>
-    <t>Maja gual..</t>
-  </si>
-  <si>
     <t>Ovejas</t>
   </si>
   <si>
@@ -921,9 +915,6 @@
     <t>Cachira</t>
   </si>
   <si>
-    <t>Convencibn.</t>
-  </si>
-  <si>
     <t>Chinacota</t>
   </si>
   <si>
@@ -1372,6 +1363,15 @@
   </si>
   <si>
     <t>Puerto Lopez</t>
+  </si>
+  <si>
+    <t>Chigorodo</t>
+  </si>
+  <si>
+    <t>Majagual..</t>
+  </si>
+  <si>
+    <t>Convencion</t>
   </si>
 </sst>
 </file>
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CD58C8-E331-CB43-8A44-79ABB339071C}">
   <dimension ref="A1:J320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>443</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -2166,12 +2166,12 @@
         <v>513</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -2180,13 +2180,13 @@
         <v>892</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>212</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2">
         <v>120</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -2340,7 +2340,7 @@
         <v>334</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2">
         <v>137</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -2614,12 +2614,12 @@
         <v>616</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C40" s="2">
         <v>1424</v>
@@ -3035,10 +3035,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2">
         <v>1287</v>
@@ -3050,7 +3050,7 @@
         <v>351</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="2">
         <v>22</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>17</v>
@@ -3076,7 +3076,7 @@
         <v>1423</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2">
         <v>897</v>
@@ -3094,12 +3094,12 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>17</v>
@@ -3108,13 +3108,13 @@
         <v>881</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2">
         <v>246</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>17</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>17</v>
@@ -3178,7 +3178,7 @@
         <v>298</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="2">
         <v>129</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>17</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>444</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>17</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>17</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>17</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>17</v>
@@ -3370,7 +3370,7 @@
         <v>330</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G51" s="2">
         <v>55</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>17</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>17</v>
@@ -3434,7 +3434,7 @@
         <v>482</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G53" s="2">
         <v>71</v>
@@ -3446,12 +3446,12 @@
         <v>956</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>17</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>17</v>
@@ -3515,10 +3515,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2">
         <v>1944</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2">
         <v>1417</v>
@@ -3579,10 +3579,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2">
         <v>824</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2">
         <v>493</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2">
         <v>849</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2">
         <v>1313</v>
@@ -3707,10 +3707,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2">
         <v>1305</v>
@@ -3734,21 +3734,21 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2">
         <v>955</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2">
         <v>123</v>
@@ -3771,10 +3771,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2">
         <v>1047</v>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2">
         <v>1089</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2">
         <v>1.288</v>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2">
         <v>1221</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="2">
         <v>57</v>
@@ -3931,10 +3931,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2">
         <v>837</v>
@@ -3958,15 +3958,15 @@
         <v>1063</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" s="2">
         <v>1348</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" s="2">
         <v>1189</v>
@@ -4022,15 +4022,15 @@
         <v>1294</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" s="2">
         <v>95</v>
@@ -4059,16 +4059,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" s="2">
         <v>1374</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2">
         <v>152</v>
@@ -4091,10 +4091,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" s="2">
         <v>1458</v>
@@ -4123,10 +4123,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C75" s="2">
         <v>679</v>
@@ -4155,10 +4155,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" s="2">
         <v>57</v>
@@ -4182,15 +4182,15 @@
         <v>433</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2">
         <v>825</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2">
         <v>1383</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2">
         <v>767</v>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2">
         <v>3033</v>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2">
         <v>269</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2">
         <v>782</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2">
         <v>177</v>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2">
         <v>470</v>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2">
         <v>505</v>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2">
         <v>1026</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2">
         <v>397</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2">
         <v>599</v>
@@ -4571,10 +4571,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2">
         <v>886</v>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2">
         <v>289</v>
@@ -4635,10 +4635,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2">
         <v>300</v>
@@ -4667,10 +4667,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2">
         <v>460</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2">
         <v>306</v>
@@ -4731,16 +4731,16 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2">
         <v>368</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2">
         <v>96</v>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2">
         <v>154</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2">
         <v>358</v>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C97" s="2">
         <v>924</v>
@@ -4859,10 +4859,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2">
         <v>269</v>
@@ -4891,10 +4891,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C99" s="2">
         <v>125</v>
@@ -4923,10 +4923,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C100" s="2">
         <v>385</v>
@@ -4955,10 +4955,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2">
         <v>98</v>
@@ -4970,7 +4970,7 @@
         <v>20</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G101" s="2">
         <v>17</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2">
         <v>787</v>
@@ -5014,15 +5014,15 @@
         <v>1329</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2">
         <v>549</v>
@@ -5034,7 +5034,7 @@
         <v>382</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G103" s="2">
         <v>179</v>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2">
         <v>92</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2">
         <v>547</v>
@@ -5115,10 +5115,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2">
         <v>271</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2">
         <v>1.2210000000000001</v>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2">
         <v>470</v>
@@ -5211,10 +5211,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2">
         <v>519</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2">
         <v>236</v>
@@ -5275,10 +5275,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2">
         <v>123</v>
@@ -5307,10 +5307,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2">
         <v>814</v>
@@ -5334,15 +5334,15 @@
         <v>1591</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2">
         <v>665</v>
@@ -5366,15 +5366,15 @@
         <v>987</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C114" s="2">
         <v>393</v>
@@ -5398,15 +5398,15 @@
         <v>675</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2">
         <v>197</v>
@@ -5424,7 +5424,7 @@
         <v>23</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I115" s="2">
         <v>382</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C116" s="2">
         <v>168</v>
@@ -5462,15 +5462,15 @@
         <v>353</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C117" s="2">
         <v>579</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2">
         <v>111</v>
@@ -5531,10 +5531,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2">
         <v>103</v>
@@ -5563,10 +5563,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C120" s="2">
         <v>836</v>
@@ -5595,10 +5595,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2">
         <v>254</v>
@@ -5622,15 +5622,15 @@
         <v>401</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2">
         <v>693</v>
@@ -5648,7 +5648,7 @@
         <v>105</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I122" s="2">
         <v>979</v>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2">
         <v>677</v>
@@ -5686,15 +5686,15 @@
         <v>1077</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C124" s="2">
         <v>553</v>
@@ -5706,7 +5706,7 @@
         <v>435</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G124" s="2">
         <v>22</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C125" s="2">
         <v>171</v>
@@ -5735,7 +5735,7 @@
         <v>431052</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F125" s="2">
         <v>905633</v>
@@ -5755,10 +5755,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C126" s="2">
         <v>853</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C127" s="2">
         <v>286</v>
@@ -5819,10 +5819,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C128" s="2">
         <v>273</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C129" s="2">
         <v>959</v>
@@ -5872,7 +5872,7 @@
         <v>43</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I129" s="2">
         <v>1547</v>
@@ -5883,10 +5883,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C130" s="2">
         <v>161</v>
@@ -5898,7 +5898,7 @@
         <v>127</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G130" s="2">
         <v>0</v>
@@ -5915,10 +5915,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C131" s="2">
         <v>540</v>
@@ -5947,10 +5947,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C132" s="2">
         <v>283</v>
@@ -5979,10 +5979,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C133" s="2">
         <v>513</v>
@@ -6011,10 +6011,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
@@ -6043,10 +6043,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C135" s="2">
         <v>422</v>
@@ -6075,16 +6075,16 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C136" s="2">
         <v>1822</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E136" s="2">
         <v>2592</v>
@@ -6096,7 +6096,7 @@
         <v>1375</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I136" s="2">
         <v>5789</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C137" s="2">
         <v>670</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C138" s="2">
         <v>441</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C139" s="2">
         <v>349</v>
@@ -6203,10 +6203,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C140" s="2">
         <v>265</v>
@@ -6235,10 +6235,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C141" s="2">
         <v>1227</v>
@@ -6262,15 +6262,15 @@
         <v>1423</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C142" s="2">
         <v>265</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C143" s="2">
         <v>1273</v>
@@ -6326,15 +6326,15 @@
         <v>1500</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C144" s="2">
         <v>465</v>
@@ -6363,10 +6363,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C145" s="2">
         <v>748</v>
@@ -6390,15 +6390,15 @@
         <v>1.123</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C146" s="2">
         <v>425</v>
@@ -6422,15 +6422,15 @@
         <v>740</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C147" s="2">
         <v>594</v>
@@ -6459,10 +6459,10 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C148" s="2">
         <v>599</v>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C149" s="2">
         <v>894</v>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C150" s="2">
         <v>309</v>
@@ -6555,10 +6555,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C151" s="2">
         <v>288</v>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C152" s="2">
         <v>382</v>
@@ -6619,10 +6619,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C153" s="2">
         <v>248</v>
@@ -6651,10 +6651,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C154" s="2">
         <v>317</v>
@@ -6678,15 +6678,15 @@
         <v>587</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C155" s="2">
         <v>518</v>
@@ -6715,10 +6715,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C156" s="2">
         <v>621</v>
@@ -6747,10 +6747,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C157" s="2">
         <v>313</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C158" s="2">
         <v>328</v>
@@ -6806,15 +6806,15 @@
         <v>449</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C159" s="2">
         <v>373</v>
@@ -6838,15 +6838,15 @@
         <v>959</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C160" s="2">
         <v>188</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C161" s="2">
         <v>711</v>
@@ -6890,27 +6890,27 @@
         <v>474</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G161" s="2">
         <v>148</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I161" s="2">
         <v>1333</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C162" s="2">
         <v>633</v>
@@ -6939,10 +6939,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C163" s="2">
         <v>309</v>
@@ -6966,15 +6966,15 @@
         <v>371</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C164" s="2">
         <v>314</v>
@@ -7003,10 +7003,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C165" s="2">
         <v>368</v>
@@ -7030,15 +7030,15 @@
         <v>587</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C166" s="2">
         <v>780</v>
@@ -7067,10 +7067,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C167" s="2">
         <v>330</v>
@@ -7099,10 +7099,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C168" s="2">
         <v>353</v>
@@ -7131,10 +7131,10 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C169" s="2">
         <v>101</v>
@@ -7163,10 +7163,10 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C170" s="2">
         <v>399</v>
@@ -7195,10 +7195,10 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C171" s="2">
         <v>310</v>
@@ -7227,10 +7227,10 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C172" s="2">
         <v>909</v>
@@ -7259,10 +7259,10 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C173" s="2">
         <v>381</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C174" s="2">
         <v>157</v>
@@ -7323,10 +7323,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C175" s="2">
         <v>528</v>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C176" s="2">
         <v>387</v>
@@ -7387,10 +7387,10 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C177" s="2">
         <v>458</v>
@@ -7419,10 +7419,10 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C178" s="2">
         <v>358</v>
@@ -7451,10 +7451,10 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C179" s="2">
         <v>378</v>
@@ -7483,10 +7483,10 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C180" s="2">
         <v>104</v>
@@ -7515,10 +7515,10 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C181" s="2">
         <v>1313</v>
@@ -7547,10 +7547,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C182" s="2">
         <v>447</v>
@@ -7579,10 +7579,10 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C183" s="2">
         <v>319</v>
@@ -7611,10 +7611,10 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C184" s="2">
         <v>203</v>
@@ -7643,10 +7643,10 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C185" s="2">
         <v>199</v>
@@ -7675,10 +7675,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C186" s="2">
         <v>561</v>
@@ -7707,10 +7707,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C187" s="2">
         <v>446</v>
@@ -7734,15 +7734,15 @@
         <v>712</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C188" s="2">
         <v>344</v>
@@ -7751,7 +7751,7 @@
         <v>344950</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F188" s="2">
         <v>569962</v>
@@ -7771,10 +7771,10 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C189" s="2">
         <v>359</v>
@@ -7803,10 +7803,10 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C190" s="2">
         <v>315</v>
@@ -7835,10 +7835,10 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C191" s="2">
         <v>574</v>
@@ -7862,15 +7862,15 @@
         <v>896</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C192" s="2">
         <v>210</v>
@@ -7899,10 +7899,10 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C193" s="2">
         <v>637</v>
@@ -7926,15 +7926,15 @@
         <v>813</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C194" s="2">
         <v>325</v>
@@ -7958,15 +7958,15 @@
         <v>592</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C195" s="2">
         <v>551</v>
@@ -7990,15 +7990,15 @@
         <v>966</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C196" s="2">
         <v>212</v>
@@ -8010,7 +8010,7 @@
         <v>190</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G196" s="2">
         <v>131</v>
@@ -8027,10 +8027,10 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C197" s="2">
         <v>374</v>
@@ -8059,10 +8059,10 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C198" s="2">
         <v>188</v>
@@ -8091,10 +8091,10 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C199" s="2">
         <v>117</v>
@@ -8123,10 +8123,10 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C200" s="2">
         <v>116</v>
@@ -8150,15 +8150,15 @@
         <v>553</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C201" s="2">
         <v>400</v>
@@ -8182,15 +8182,15 @@
         <v>841</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C202" s="2">
         <v>189</v>
@@ -8214,15 +8214,15 @@
         <v>551</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C203" s="2">
         <v>170</v>
@@ -8251,10 +8251,10 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C204" s="2">
         <v>457</v>
@@ -8275,7 +8275,7 @@
         <v>189790</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J204" s="2">
         <v>4301092</v>
@@ -8283,10 +8283,10 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C205" s="2">
         <v>717</v>
@@ -8310,15 +8310,15 @@
         <v>1.4179999999999999</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C206" s="2">
         <v>1760</v>
@@ -8347,10 +8347,10 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C207" s="2">
         <v>580</v>
@@ -8374,21 +8374,21 @@
         <v>798</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C208" s="2">
         <v>828</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E208" s="2">
         <v>222</v>
@@ -8411,10 +8411,10 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C209" s="2">
         <v>873</v>
@@ -8438,15 +8438,15 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C210" s="2">
         <v>1.0620000000000001</v>
@@ -8475,10 +8475,10 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C211" s="2">
         <v>841</v>
@@ -8507,10 +8507,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C212" s="2">
         <v>655</v>
@@ -8528,7 +8528,7 @@
         <v>30</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I212" s="2">
         <v>884</v>
@@ -8539,10 +8539,10 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C213" s="2">
         <v>985</v>
@@ -8571,10 +8571,10 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C214" s="2">
         <v>1026</v>
@@ -8603,16 +8603,16 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C215" s="2">
         <v>466</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E215" s="2">
         <v>375</v>
@@ -8635,10 +8635,10 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C216" s="2">
         <v>427</v>
@@ -8667,10 +8667,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C217" s="2">
         <v>645</v>
@@ -8699,10 +8699,10 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>295</v>
+        <v>445</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C218" s="2">
         <v>329</v>
@@ -8731,10 +8731,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C219" s="2">
         <v>240</v>
@@ -8763,10 +8763,10 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C220" s="2">
         <v>466</v>
@@ -8795,10 +8795,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C221" s="2">
         <v>416</v>
@@ -8827,16 +8827,16 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C222" s="2">
         <v>562</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E222" s="2">
         <v>172</v>
@@ -8859,10 +8859,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C223" s="2">
         <v>1.0329999999999999</v>
@@ -8874,7 +8874,7 @@
         <v>433</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G223" s="2">
         <v>63</v>
@@ -8891,10 +8891,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C224" s="2">
         <v>344</v>
@@ -8923,10 +8923,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C225" s="2">
         <v>572</v>
@@ -8955,10 +8955,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C226" s="2">
         <v>722</v>
@@ -8982,21 +8982,21 @@
         <v>912</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C227" s="2">
         <v>2653</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E227" s="2">
         <v>1291</v>
@@ -9014,15 +9014,15 @@
         <v>4091</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C228" s="2">
         <v>299</v>
@@ -9051,10 +9051,10 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C229" s="2">
         <v>274</v>
@@ -9083,10 +9083,10 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C230" s="2">
         <v>153</v>
@@ -9115,10 +9115,10 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C231" s="2">
         <v>797</v>
@@ -9147,10 +9147,10 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C232" s="2">
         <v>780</v>
@@ -9179,10 +9179,10 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C233" s="2">
         <v>268</v>
@@ -9211,10 +9211,10 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C234" s="2">
         <v>1.5940000000000001</v>
@@ -9243,10 +9243,10 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C235" s="2">
         <v>463</v>
@@ -9275,10 +9275,10 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C236" s="2">
         <v>410</v>
@@ -9307,10 +9307,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C237" s="2">
         <v>488</v>
@@ -9339,10 +9339,10 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C238" s="2">
         <v>515</v>
@@ -9371,10 +9371,10 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C239" s="2">
         <v>414</v>
@@ -9403,10 +9403,10 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C240" s="2">
         <v>420</v>
@@ -9435,10 +9435,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C241" s="2">
         <v>911</v>
@@ -9467,10 +9467,10 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C242" s="2">
         <v>1191</v>
@@ -9499,10 +9499,10 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C243" s="2">
         <v>394</v>
@@ -9531,10 +9531,10 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C244" s="2">
         <v>794</v>
@@ -9563,10 +9563,10 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C245" s="2">
         <v>862</v>
@@ -9595,10 +9595,10 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C246" s="2">
         <v>387</v>
@@ -9627,10 +9627,10 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C247" s="2">
         <v>189</v>
@@ -9659,10 +9659,10 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C248" s="2">
         <v>272</v>
@@ -9691,10 +9691,10 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C249" s="2">
         <v>288</v>
@@ -9723,16 +9723,16 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C250" s="2">
         <v>868</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E250" s="2">
         <v>1144</v>
@@ -9755,10 +9755,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C251" s="2">
         <v>205</v>
@@ -9787,10 +9787,10 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C252" s="2">
         <v>220</v>
@@ -9819,10 +9819,10 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C253" s="2">
         <v>290</v>
@@ -9851,10 +9851,10 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C254" s="2">
         <v>189</v>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C255" s="2">
         <v>342</v>
@@ -9915,10 +9915,10 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C256" s="2">
         <v>233</v>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C257" s="2">
         <v>198</v>
@@ -9962,7 +9962,7 @@
         <v>376</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G257" s="2">
         <v>45</v>
@@ -9979,16 +9979,16 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C258" s="2">
         <v>1335</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E258" s="2">
         <v>3.4220000000000002</v>
@@ -10011,10 +10011,10 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C259" s="2">
         <v>207</v>
@@ -10043,10 +10043,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C260" s="2">
         <v>1.0249999999999999</v>
@@ -10075,10 +10075,10 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C261" s="2">
         <v>1.6679999999999999</v>
@@ -10107,10 +10107,10 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C262" s="2">
         <v>207</v>
@@ -10139,10 +10139,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C263" s="2">
         <v>393</v>
@@ -10171,10 +10171,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C264" s="2">
         <v>257</v>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C265" s="2">
         <v>91</v>
@@ -10235,10 +10235,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C266" s="2">
         <v>643</v>
@@ -10267,10 +10267,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C267" s="2">
         <v>918</v>
@@ -10299,10 +10299,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C268" s="2">
         <v>80</v>
@@ -10331,10 +10331,10 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C269" s="2">
         <v>216</v>
@@ -10363,10 +10363,10 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C270" s="2">
         <v>230</v>
@@ -10395,10 +10395,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C271" s="2">
         <v>466</v>
@@ -10427,10 +10427,10 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C272" s="2">
         <v>757</v>
@@ -10459,10 +10459,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C273" s="2">
         <v>98</v>
@@ -10491,10 +10491,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C274" s="2">
         <v>694</v>
@@ -10515,7 +10515,7 @@
         <v>286585</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J274" s="2">
         <v>4100.8379999999997</v>
@@ -10523,10 +10523,10 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C275" s="2">
         <v>347</v>
@@ -10555,10 +10555,10 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C276" s="2">
         <v>671</v>
@@ -10587,10 +10587,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C277" s="2">
         <v>130</v>
@@ -10619,10 +10619,10 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C278" s="2">
         <v>182</v>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C279" s="2">
         <v>280</v>
@@ -10683,10 +10683,10 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C280" s="2">
         <v>320</v>
@@ -10698,7 +10698,7 @@
         <v>482</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G280" s="2">
         <v>68</v>
@@ -10715,10 +10715,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C281" s="2">
         <v>870</v>
@@ -10742,15 +10742,15 @@
         <v>1933</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C282" s="2">
         <v>252</v>
@@ -10779,10 +10779,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C283" s="2">
         <v>256</v>
@@ -10811,16 +10811,16 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C284" s="2">
         <v>647</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E284" s="2">
         <v>640</v>
@@ -10832,21 +10832,21 @@
         <v>209</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I284" s="2">
         <v>1496</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C285" s="2">
         <v>26</v>
@@ -10875,10 +10875,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C286" s="2">
         <v>174</v>
@@ -10907,10 +10907,10 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C287" s="2">
         <v>712</v>
@@ -10922,13 +10922,13 @@
         <v>658</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G287" s="2">
         <v>111</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I287" s="2">
         <v>1481</v>
@@ -10939,10 +10939,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C288" s="2">
         <v>325</v>
@@ -10971,10 +10971,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C289" s="2">
         <v>389</v>
@@ -10998,15 +10998,15 @@
         <v>651</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C290" s="2">
         <v>107</v>
@@ -11035,10 +11035,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C291" s="2">
         <v>404</v>
@@ -11062,15 +11062,15 @@
         <v>728</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C292" s="2">
         <v>675</v>
@@ -11099,10 +11099,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C293" s="2">
         <v>333</v>
@@ -11131,10 +11131,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C294" s="2">
         <v>438</v>
@@ -11143,7 +11143,7 @@
         <v>662617</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F294" s="2">
         <v>769779</v>
@@ -11163,10 +11163,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C295" s="2">
         <v>454</v>
@@ -11195,10 +11195,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C296" s="2">
         <v>498</v>
@@ -11216,7 +11216,7 @@
         <v>253</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I296" s="2">
         <v>1.1890000000000001</v>
@@ -11227,10 +11227,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C297" s="2">
         <v>170</v>
@@ -11259,10 +11259,10 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C298" s="2">
         <v>495</v>
@@ -11291,10 +11291,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C299" s="2">
         <v>167</v>
@@ -11323,10 +11323,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C300" s="2">
         <v>64</v>
@@ -11350,15 +11350,15 @@
         <v>762</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C301" s="2">
         <v>169</v>
@@ -11387,10 +11387,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C302" s="2">
         <v>849</v>
@@ -11419,10 +11419,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C303" s="2">
         <v>218</v>
@@ -11451,10 +11451,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C304" s="2">
         <v>95</v>
@@ -11483,10 +11483,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C305" s="2">
         <v>310</v>
@@ -11498,7 +11498,7 @@
         <v>934</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G305" s="2">
         <v>50</v>
@@ -11515,13 +11515,13 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D306" s="2">
         <v>367710</v>
@@ -11547,10 +11547,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C307" s="2">
         <v>606</v>
@@ -11579,10 +11579,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C308" s="2">
         <v>222</v>
@@ -11603,7 +11603,7 @@
         <v>58893</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J308" s="2">
         <v>1947176</v>
@@ -11611,10 +11611,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C309" s="2">
         <v>438</v>
@@ -11643,13 +11643,13 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="C310" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D310" s="3">
         <v>544539</v>
@@ -11670,18 +11670,18 @@
         <v>412</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D311" s="3">
         <v>599277</v>
@@ -11702,15 +11702,15 @@
         <v>332</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C312" s="2">
         <v>174</v>
@@ -11739,10 +11739,10 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C313" s="2">
         <v>511</v>
@@ -11771,10 +11771,10 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C314" s="2">
         <v>827</v>
@@ -11786,7 +11786,7 @@
         <v>375</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G314" s="2">
         <v>13</v>
@@ -11803,10 +11803,10 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C315" s="2">
         <v>205</v>
@@ -11835,10 +11835,10 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C316" s="2">
         <v>87</v>
@@ -11850,7 +11850,7 @@
         <v>11</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G316" s="2">
         <v>0</v>
@@ -11867,10 +11867,10 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C317" s="2">
         <v>90</v>
@@ -11899,10 +11899,10 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C318" s="2">
         <v>177</v>
@@ -11931,10 +11931,10 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C319" s="2">
         <v>343</v>
@@ -11963,10 +11963,10 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C320" s="2">
         <v>35</v>
